--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="売上高（顧客別）" sheetId="4" r:id="rId1"/>
-    <sheet name="DATA" sheetId="5" r:id="rId2"/>
+    <sheet name="売上高%（顧客別）" sheetId="4" r:id="rId1"/>
+    <sheet name="粗利（計上月別）" sheetId="6" r:id="rId2"/>
+    <sheet name="DATA" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="DATA_LIST">DATA!$A$1:INDEX(DATA!$E:$E,COUNTA(DATA!$A:$A))</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="13" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>計上月</t>
     <rPh sb="0" eb="2">
@@ -73,27 +74,37 @@
     <t>合計 / 売上高</t>
   </si>
   <si>
+    <t>合計 / 粗利</t>
+  </si>
+  <si>
+    <t>列ラベル</t>
+  </si>
+  <si>
     <t>&lt;jt:forEach items="${datas}" var="data"&gt;${data.postingDate}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>${data.salesAmt}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${data.clientName}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${data.costAmt}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;jt:formula text="${data.salesAmt}-${data.costAmt}"/&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>&lt;/jt:forEach&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${data.salesAmt}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${data.clientName}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${data.costAmt}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${data.clientName}</t>
+    <t>'</t>
   </si>
 </sst>
 </file>
@@ -185,7 +196,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -210,6 +221,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="55" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -222,8 +239,9 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ja-JP"/>
+  <c:roundedCorners val="1"/>
   <c:pivotSource>
-    <c:name>[template.xlsx]売上高（顧客別）!ﾋﾟﾎﾞｯﾄﾃｰﾌﾞﾙ1</c:name>
+    <c:name>[output.xlsx]売上高%（顧客別）!ﾋﾟﾎﾞｯﾄﾃｰﾌﾞﾙ1</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -236,21 +254,38 @@
             <a:pPr>
               <a:defRPr u="sng">
                 <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US" u="sng">
                 <a:solidFill>
-                  <a:srgbClr val="FFFF00"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>売上高（顧客別）</a:t>
+              <a:t>売上高</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" u="sng">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>%</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" u="sng">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>（顧客別）</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -269,6 +304,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:layout/>
           <c:numFmt formatCode="0%" sourceLinked="0"/>
           <c:spPr/>
           <c:txPr>
@@ -305,7 +341,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'売上高（顧客別）'!$B$3</c:f>
+              <c:f>'売上高%（顧客別）'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -346,18 +382,18 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'売上高（顧客別）'!$A$4:$A$5</c:f>
+              <c:f>'売上高%（顧客別）'!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>${data.clientName}</c:v>
+                  <c:v>'</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'売上高（顧客別）'!$B$4:$B$5</c:f>
+              <c:f>'売上高%（顧客別）'!$B$4:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -380,9 +416,12 @@
           <c:x val="0.66173810036773495"/>
           <c:y val="0.6482658451468406"/>
           <c:w val="0.2931914837615639"/>
-          <c:h val="0.24920459576536844"/>
+          <c:h val="0.24920459576536874"/>
         </c:manualLayout>
       </c:layout>
+      <c:spPr>
+        <a:ln cap="rnd"/>
+      </c:spPr>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -402,15 +441,262 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="tx2">
-        <a:lumMod val="50000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx1"/>
     </a:solidFill>
+    <a:ln>
+      <a:bevel/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="40000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
+    <a:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </a:scene3d>
+    <a:sp3d>
+      <a:bevelB prst="relaxedInset"/>
+    </a:sp3d>
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="1"/>
+  <c:pivotSource>
+    <c:name>[output.xlsx]粗利（計上月別）!ﾋﾟﾎﾞｯﾄﾃｰﾌﾞﾙ1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>粗利（計上月別）</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'粗利（計上月別）'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>'</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'粗利（計上月別）'!$A$5:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>'</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'粗利（計上月別）'!$B$5:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>"¥"#,##0;\-"¥"#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="cylinder"/>
+        <c:axId val="117227520"/>
+        <c:axId val="117229056"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="117227520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="117229056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="117229056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="&quot;¥&quot;#,##0;[Red]\(&quot;¥&quot;#,##0\)" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </c:spPr>
+        <c:crossAx val="117227520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="tx1"/>
+    </a:solidFill>
+    <a:ln>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="40000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
+    <a:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </a:scene3d>
+    <a:sp3d prstMaterial="metal"/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -420,15 +706,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
+      <xdr:colOff>819150</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -450,14 +736,51 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1152526</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="作成者" refreshedDate="42508.023942708336" missingItemsLimit="0" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="作成者" refreshedDate="42511.487086458335" missingItemsLimit="0" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="1">
   <cacheSource type="worksheet">
     <worksheetSource name="DATA_LIST"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="計上月" numFmtId="55">
-      <sharedItems/>
+      <sharedItems count="1">
+        <s v="&lt;jt:forEach items=&quot;${datas}&quot; var=&quot;data&quot;&gt;${data.postingDate}"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="売上高" numFmtId="5">
       <sharedItems/>
@@ -480,24 +803,24 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1">
   <r>
-    <s v="&lt;jt:forEach items=&quot;${datas}&quot; var=&quot;data&quot;&gt;${data.postingDate}"/>
+    <x v="0"/>
     <s v="${data.salesAmt}"/>
     <x v="0"/>
     <s v="${data.costAmt}"/>
-    <e v="#VALUE!"/>
+    <s v="&lt;jt:formula text=&quot;${data.salesAmt}-${data.costAmt}&quot;/&gt;"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ﾋﾟﾎﾞｯﾄﾃｰﾌﾞﾙ1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ﾋﾟﾎﾞｯﾄﾃｰﾌﾞﾙ1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField numFmtId="55" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="2">
-        <item x="0"/>
+        <item n="'" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -535,6 +858,78 @@
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ﾋﾟﾎﾞｯﾄﾃｰﾌﾞﾙ1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:C6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" numFmtId="55" showAll="0">
+      <items count="2">
+        <item n="'" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="5" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item n="'" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="5" showAll="0"/>
+    <pivotField dataField="1" numFmtId="5" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="合計 / 粗利" fld="4" baseField="0" baseItem="0" numFmtId="5"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
@@ -830,15 +1225,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:B5"/>
+  <dimension ref="A3:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2">
@@ -851,7 +1246,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -874,13 +1269,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A3:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="5" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="12.25" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="5.75" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="5" width="20.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -902,20 +1361,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
